--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/text/07_Design/【実習】各種設計書（テンプレ）/基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/sekkei/sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340F039C-A502-4868-9B9E-33F0241CE1B9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{451C7A11-5024-4319-A5C5-44D8B676BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D1F6DE-9862-4C83-B394-544684141DDC}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>説明／備考</t>
   </si>
@@ -569,6 +569,25 @@
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>UNIQ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>current_timestamp()</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1289,6 +1308,33 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1342,33 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3701,7 +3720,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3724,25 +3743,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="106"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3752,78 +3771,76 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="35">
-        <v>44187</v>
-      </c>
+      <c r="M2" s="35"/>
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="112"/>
-      <c r="P2" s="110"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="94"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="97"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3864,10 +3881,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="99"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3905,13 +3922,17 @@
         <v>17</v>
       </c>
       <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="100" t="s">
+      <c r="K7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="101"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
+      <c r="O7" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
@@ -3939,9 +3960,11 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
+      <c r="K8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="111"/>
+      <c r="M8" s="112"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -3971,9 +3994,11 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="K9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -4003,9 +4028,11 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
+      <c r="K10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="95"/>
+      <c r="M10" s="96"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -4035,9 +4062,11 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="K11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="95"/>
+      <c r="M11" s="96"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -4069,11 +4098,15 @@
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
+      <c r="K12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="95"/>
+      <c r="M12" s="96"/>
       <c r="N12" s="28"/>
-      <c r="O12" s="24"/>
+      <c r="O12" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
@@ -4101,11 +4134,13 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="86" t="s">
+      <c r="K13" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="87"/>
+      <c r="M13" s="96"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -4135,11 +4170,13 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="86" t="s">
+      <c r="K14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="87"/>
+      <c r="M14" s="96"/>
       <c r="N14" s="28"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
@@ -4169,9 +4206,11 @@
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
+      <c r="K15" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="95"/>
+      <c r="M15" s="96"/>
       <c r="N15" s="28"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
@@ -4201,9 +4240,11 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
+      <c r="K16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
       <c r="N16" s="28"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
@@ -4233,9 +4274,11 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
+      <c r="K17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
       <c r="N17" s="28"/>
       <c r="O17" s="24"/>
       <c r="P17" s="29"/>
@@ -4265,9 +4308,11 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
+      <c r="K18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
       <c r="N18" s="28"/>
       <c r="O18" s="24"/>
       <c r="P18" s="29"/>
@@ -4297,11 +4342,13 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="86" t="s">
+      <c r="K19" s="24">
+        <v>0</v>
+      </c>
+      <c r="L19" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="87"/>
+      <c r="M19" s="96"/>
       <c r="N19" s="28"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
@@ -4331,11 +4378,13 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="86" t="s">
+      <c r="K20" s="24">
+        <v>0</v>
+      </c>
+      <c r="L20" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="87"/>
+      <c r="M20" s="96"/>
       <c r="N20" s="28"/>
       <c r="O20" s="24"/>
       <c r="P20" s="29"/>
@@ -4363,7 +4412,9 @@
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="L21" s="64"/>
       <c r="M21" s="65"/>
       <c r="N21" s="28"/>
@@ -4393,24 +4444,24 @@
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="86" t="s">
+      <c r="K22" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="M22" s="87"/>
+      <c r="M22" s="96"/>
       <c r="N22" s="28"/>
       <c r="O22" s="24"/>
       <c r="P22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -4424,11 +4475,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
